--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/51_Kilis_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/51_Kilis_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54C9F3D2-9268-4B47-9BFD-AF2E5955B1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C4D9DEA-C390-4DE0-8D59-87101D39E443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="686" xr2:uid="{58367790-B502-4125-B8A0-D051FB4F795E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="686" xr2:uid="{F6306EDE-C01D-4AF2-8A79-D5F7AFCA55CA}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -967,15 +967,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{55E929DF-6E70-49BC-A44A-2CD5484C77D6}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A4F28196-799E-4DE4-A9B1-FAD5958AC545}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{507E0BCC-E6B1-45BF-83AB-F0F1074A5379}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{33AB8589-CE69-4E68-A145-29AEA06CD801}"/>
-    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{974A1E78-E6A3-413B-89CD-C5D354386E5B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{3E9EDC58-773B-4551-A1FD-E56AAF6FB26A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{D9E5F451-9BD4-4420-992E-E53911EBF5CA}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{BEAA5B4D-9B07-4EA4-A043-C9AD33078904}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{383FE4F7-21BB-438B-8C8F-4C5ADE697817}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{DF524CB6-9654-4DE5-9103-082C9B64B7CC}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{FF3E06DA-790C-4BF8-9257-905BD998D387}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{B5B903A9-A1A8-4323-A51F-D4FF98A832BF}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{DA257638-DECF-4DE1-90CD-4DF0307947D3}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{997A5E56-F716-4949-A808-B0C0CEA9154A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{BDDB356B-96E3-44BD-A439-D50C02F4DD47}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{28521E25-0E9B-42D0-8C62-F74272F1579D}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{FDAC6A18-0286-4E2A-B7EF-B37645B65C32}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{0A602CEE-AEE2-422C-AF63-5C417EB6ACC0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1345,7 +1345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB71FC27-8D53-4BF4-B1E7-EADFA515BCF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFAB96A-6082-490D-8D50-2BBDD530AC87}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2632,18 +2632,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{83FF97B3-1904-49AF-8CEC-DC7D3F60B15D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C4AB3068-583F-45CA-AD1B-67877AEAAE5B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF4F7510-3573-467B-A6B4-6B428609A3BB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{47E5FE4F-319E-494A-9DCB-4B3023C3C4F8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{704C87DA-C659-4619-A7BE-7C1E86CDFF21}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4C363C91-DD70-4DFA-A2DD-461CF2A6FB4E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA083838-A4D2-4B20-82F1-4C91B4C5BB80}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC0EBCD1-DA68-4740-9609-B18889B1F83C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1D99C7EF-CBC8-4618-ABF1-22A2F62BDEFD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{234BC2D9-4440-447E-BF0E-3B711C376C26}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA79698D-941C-4B12-BF5E-27F3E4A615DB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{659D4882-70D0-41B5-81DD-AFA525A9C416}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DBA72330-6EF6-4AB9-BAE5-6C035FF293D9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{53FA0673-39EE-4848-A150-8058AE1FE85F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F45D2C51-A75E-4446-AEA6-1820EFF31558}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{77640637-75F7-419C-97CB-9D289ED3FF11}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6B9A0C4C-C5AF-4909-A126-E99A194703E8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9E696105-C70E-4DF1-A4DA-A566D0F829F2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8004788C-9CAA-4997-B5D0-593FA99E3FB2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C9E1C0A-230E-44D6-B989-A6DB5895B24E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B334A88D-5189-41F7-82F7-068A6FDEA28F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{58A6CA73-9A88-442F-A860-2E6085710708}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A49F6D84-AD16-446C-9BD1-F98E64C9FBE5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A38DF2A1-4BCA-4102-A8CF-33CB281159D4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2656,7 +2656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E0879F-584F-4390-A034-ABF9D5491309}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF97F06-B3DC-4EBF-A71A-D3756ABE1978}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3923,18 +3923,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D4C19B65-77AC-4BA8-B4BC-8F9C30508870}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0EDF4A48-6CA3-4161-86A6-097DBA08F5E5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C928CEC6-2348-48BE-B3C0-21064D8D570F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{637D12F7-A2DC-4383-A39B-138B137D0E38}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{410C70DC-F55F-40BB-9932-5843BFB3682E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9D85E576-AC05-4558-B8F5-57828C479A5B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6DCD3A07-CEFC-4D62-8336-AF9564538543}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D7F7E9DC-0707-491A-8A1F-997C5CB76625}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{30E9DBAD-262F-4CDB-9398-56FF806FC049}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9F8A7165-D2A5-47D0-8585-FB161714DF46}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{355FAB48-2392-42F3-94D2-980B689F72AF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2BBB624C-8691-4F62-92B8-75D2D41E52D8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A87616A2-82A1-4A69-9028-F1C0D3008B38}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{052EE94B-F32D-4C31-B004-D58822207B1C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CFA9BA5E-DDC3-4FE8-B166-BD4CFD96607B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{19DAB972-E1A3-4799-B038-14052F1D4F58}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{98F09BC3-E849-48FB-A76E-38EAE601F4DC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7FA1FDD2-29A1-4504-B615-26C4F184BBF1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{438F0E36-8898-4A8E-AB37-6F22920FEFA7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{111BFF4F-416C-4A1F-9C6A-32B37C82F237}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ABA17BC0-3E11-47F2-88FB-4ED03F8C0394}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D1D834AF-584A-4758-B49A-B98B7655CBCE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7BD5A112-F45D-4FE8-8E18-0E6B35DA339B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{992FECD9-370C-4251-B24B-6BD512ADDFD1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3947,7 +3947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B293087-2909-4FB3-B91F-0AF5C80BD63C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3D6FC7-132A-46B5-9EB0-AACE6AF0CA30}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5214,17 +5214,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B94A047B-FEE2-4165-9092-25608A11E4EE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C085E202-F0D1-4072-A920-EE51F82F8E05}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7146428F-6361-4372-A66E-A6A78AF7EF9C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{15224EE6-E86B-4702-87D8-53A29EE4C897}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DB6D7D00-796F-4910-872D-0EA7F097AE03}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7420100F-E72F-4050-8219-EC9C6785E2DF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3E334E12-243A-4B0B-BB42-F579747F7800}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EB1CA6B2-8466-4EA0-AE6D-CAEC1D1BDB43}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C5A97A02-66C8-4F3B-8E1C-6D55A6B3EEA1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{50F4637E-A2F6-4255-9E63-3A5222AB1FDC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{98F6082F-02B7-4CF7-9A6D-78F957F7FF8E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2D2EBDD0-064F-4F22-BC03-29A975712CAF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AC0AD5A6-CEBE-46E7-8210-DB0AA81D1D45}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{46D20445-19C0-46EE-9C18-63FCEB7B01A7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A9C92FF3-F874-44D7-BE3E-27DEBBE5F7FD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DAADCDE9-4B80-473B-BEFF-55C3CCD62827}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D77DF1D2-DE72-4BC0-8482-1D42CD0A8E56}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8430E770-7C88-4D6E-89CA-0926DD14DAD6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0B113E12-D149-4FFB-84DB-F9C767EEF18C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{768B1063-65C4-4129-A0BD-7E322FACDAE4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC33C705-CDF6-4896-9A26-8677503FE848}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{36ABFDD4-97D2-4EBA-9738-5487451AD376}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5237,7 +5237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7B54C1-43CE-4BDD-BA07-425FBC2C749A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3983177-D158-4BB9-A062-4754BF71DA0E}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6492,18 +6492,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F52CB26B-85D5-4425-864E-71AF096A2747}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{12B103DB-B6F8-4F46-8920-5D02F6DB5EE4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D4AFE8F4-B302-4320-981E-58A0BCCA4689}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5959D96E-3096-42F9-BBE8-1665338968A3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{480CF1B2-3DD3-4052-A9BC-BD96375574DD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{67111EAC-F1EA-40A5-BF56-2EAA35E779B7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3D73DC9-8339-405C-B0E8-4C870FA28588}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B239B1FF-BDE4-4901-81D3-B5A15180F0D5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D13D46DF-D3F0-4754-8DD1-F0A29BEEED2C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{58D9B1B2-5AD1-4922-8B15-322B919CFEBE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1A7B912-CF15-432E-9BBD-85AD1267222A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1B1A2EBA-8924-4CD2-A67B-54DE50B5DC33}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9053FA91-CC78-4115-B168-5B1FCCD89A86}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{24CBFCFC-15D4-4B22-9B76-E01B6E0001D3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{67B73216-A517-4884-99F5-87E8CA4AF63E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{051D43F8-FC4C-4786-AD01-3016112A3D1D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{85ABF278-04DA-4A2C-A2CB-D9C9FA299C15}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D8BA0139-16F9-4E6D-92BA-B64CE2124092}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D6C17401-CEDF-4859-A49A-0B78A0DB33C8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0D664EE-262A-4EE7-A7A9-C335C0F6C921}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C071ABB4-4A6D-4A36-8AFE-1905422B0BD1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{24D4BA7E-5751-49E4-BC13-9299C8C71AEA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1D19F8AD-AF1B-4634-B2A2-47AB98B07336}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8372114E-6854-4EF1-A598-0E0022B57104}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6516,7 +6516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAF61BE-4813-4FF2-859D-2A7303A9510C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0AC841-ABFE-4603-866D-2CDFF9CA5FC6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7803,18 +7803,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8F545250-F788-444E-BAAE-927453982B40}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0C997AFA-008B-4DB1-9F6F-33C0EBEEB6BF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7DF02A39-DB6A-4C94-9338-9C03CE18CE6C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FBC5826A-B57D-4A19-BFCE-419744DB95F2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8B4E6B89-2C7C-45E0-9B46-8B069BDAEB45}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D9E55FC0-D4E3-4F23-BED1-798E45A17C4F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E26A7F79-5F47-48CE-9092-4E9B5ADD3D50}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9A51A07-49E9-4966-9BDF-7FCB13A86375}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DFD15B76-3B6F-41F9-B200-7491F9E7EC96}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{257E72C1-5B02-4F3A-8BB9-EBB3B9B0A2E4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F695BD87-A2EE-4520-B1B9-B4E03814D6F4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{04593DE8-B014-41F3-9EAA-5021DA736745}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CE456ADD-7FC9-4E8D-AB06-40C9F517ACCE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D2DA5894-1FFB-49F6-82C3-9F75298193B0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{737A94C5-7F2E-4D7A-BD6B-597C4B923E16}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DE0DD9A7-6211-422F-ACD1-9E8BB4C844A8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DFFB15F0-7909-4DAC-8765-674724EFB3D3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BD2B6766-10CB-4F20-9B6E-29254715C169}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A57BDD4E-F71C-4CF0-9FF0-B06C040C733F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{231B2BCC-D08E-4B56-933A-9AECFFE39FB4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D465965C-F61C-4C15-9330-9FEC514491E2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CFF40BBA-FC60-4B54-BAA2-0E8DA56953C1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7403D7A8-8690-4ED6-84D9-118DFD9F64D6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FFDE9303-A715-4623-AA0A-F933B249B4FD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7827,7 +7827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD93A8AA-714F-449F-B9B9-05B5DC125D21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53538C6B-ACE4-4D2B-9969-A6B1B7002E2A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9114,18 +9114,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C862BBD1-5BB9-4A91-8A10-4F75133C990B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B62E51CA-F556-491E-8077-B4C4986E950F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD9E61C3-E68B-40EA-9F50-BA01C491242D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EC2FD4F0-1487-42C8-8FB1-1D77093FCE2F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{76F8BB70-5B14-4BEB-A244-570C64327A92}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{831D493C-25D7-4AA2-A775-F60F94695F5F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{42B1EA52-9907-4B70-95E5-70481B15066E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4D794793-AA6C-4D1F-BA51-60B93426C2A5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5E01459F-E5CD-4544-8F72-B87682B43D38}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C28528B3-D05C-4CFE-9A69-6C5A407A9445}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB17B0C7-5573-4C8D-91B2-EC4AFA7F18B5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{52EA4487-DED5-4C8C-9EFD-333F0440AC74}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D48E5E62-755E-421A-9014-A9C98165FD5D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{67CE7066-EF7B-44C3-9239-0D2C89F9119A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{864D431C-24D8-40E4-8F67-950B451FAB09}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CA1E8149-1F1B-4764-A13E-2AF2052B6701}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1BE4F9CD-B52F-42D4-86A9-E79D839D5849}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3DC2EA63-2CCD-4E80-ACBD-03284DD940CC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CE41E224-10F2-420F-89B0-98A6F8EC14C3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{514A4301-D1B8-47A8-95FA-42D784F37D22}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E7BFBB82-1996-4073-9BE1-166C28A4D534}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4A6B381A-331D-4E75-AC6D-96A0D97DED8D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{86D159C0-27AD-455B-85A5-34FB12F3A495}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A47E4D38-6A26-47C2-804A-9FEADD25A8EF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9138,7 +9138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2396CE96-3801-4B09-A0CB-318B52B650C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7221081C-A359-4482-B740-949A76060444}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10421,18 +10421,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9FE2D3EC-B3B6-47D4-82F5-4B7521CB004E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{37ACC6C2-4328-4DEE-A18A-6885791C35FA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0136D38-A46A-4490-A9B6-1E3A4A1B8CC9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E3AFCDC8-5785-47B3-8A79-13EC308B6B33}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A4478C13-A6E5-484D-BFF1-4D0CF212EE73}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EC22966B-2E20-4F61-BA7F-E55057F7F824}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03E50BE6-A2F2-4E1C-9BBF-3F30BB19E8F2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A6C8654F-9061-4040-88B0-97F8557D69F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7DEB43A9-85AC-4304-9072-1D526352A79B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{75718DC5-B256-4042-B1F6-86261278943F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D7CC84C6-5611-4CC0-9927-AB6A75B956FF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4F5A7387-927C-4C5B-9149-522EE10FA069}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B19522BD-E113-4623-8390-BFD92F39C9C5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D9E6F4A0-E2F9-4F3A-945A-ABDEB7588B7D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{010CB362-7DBD-4CC2-A9D7-E0D0CEE16F60}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{870D0F0E-9B95-4847-B111-79D6F02CD9F8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{44345D8B-7E3E-472B-A97B-74E6DA56FC37}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9C82CDA0-A487-42C9-A23B-2CDC7518243E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E0AFA8E5-FD28-4667-B43F-AAD14EAE60DF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D5A27BDC-BFA3-430A-816D-BF5EF992561F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{607A0C11-985A-4F87-9ABD-3057234E10BA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C90018CE-7EF3-4C56-B129-906B098D6119}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24EF0287-B19D-4E3F-AD86-D304E463BC42}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D267CFCD-A505-4FA8-8ED2-956EF5B708A4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10445,7 +10445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61066903-413C-4609-B971-C7613E639F37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB3E375-0001-499A-A1EC-20CBF43DFFBC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11728,18 +11728,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B091AF3F-82EF-4401-B92A-EF27C7E705C0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E7A6571F-FBD3-4C1C-9B3D-A08AD9ABB9CB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BF71C0EC-9EB4-423C-B308-FF16EBCAB313}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AA0738C6-0889-4276-AB06-13EC0BF54387}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1AC4BB5C-921E-4440-B8CB-15FDB96E0294}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C383E898-6DFF-4AE8-BAD3-9ECA7AFFDD87}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3737EE84-AD66-4DC5-83BA-65B65422E535}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7C2F864D-ED32-407A-A28A-778774FCE0CF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C3239D0A-88A9-42C3-8B76-9752419B6033}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{70439627-DD83-48BF-BD1D-374C527B5272}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{93897860-0B9D-4EDA-9A1D-6A691CE9D39F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CD9A4DE9-2902-410F-A71D-73874AB954A5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA7EBF61-5DF0-4AC3-9A26-762668DB95E9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{93AE8A8F-1F36-45D9-97ED-2F7771CF3751}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4EBD9EBF-E686-4AB1-B8D7-449EA0C6F1EF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AC3518AE-17E0-4A2B-B1B6-5080FF3850CB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7CED9195-460B-4E55-BA20-00DCEFC034E7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FD8091D0-5FD6-4691-AB4C-F13C24A056B5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2B6D6A59-A56C-40C2-AC75-6952267E7B2F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{87328B4D-2569-491F-A60D-9B673002FAFB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A2D02D5A-5A2C-402F-8771-F5964E888992}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B706DFDC-F39E-42F0-AEAB-74213D91CD13}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F24468D8-B4AE-4041-81C5-B07F09C71F52}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{886C8EF8-F79A-48CE-A3D6-F243F03ED1E4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11752,7 +11752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED180775-60F9-44EF-92F6-D21D7DFEB5DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1129909D-1ABE-4274-8918-6E733E2BD7FB}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13027,18 +13027,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A273E0AB-9D35-4168-8846-FC77966825EA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8C0B31D6-82F1-4EE3-900D-3547B01DEDAE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EA9FB626-4CC8-439C-94D0-9555B8FE6B69}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{67C75650-021E-409A-AF91-4AEB8A513EAA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7C455200-43B0-4B66-9AF2-0B2BA0C78BFF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5449A613-B016-4FE1-AC82-4C5441511B7F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B7EFB090-3F96-410C-A9EE-45903B35BEB6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{19D2DFF9-3A22-4C21-990C-8408A4C8FC6D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{46823BBA-2AD2-4A9F-96F9-9615C1D68010}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9FEBF028-171D-4DBF-9EB6-9E9CDA990294}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E84CB2EB-4ACD-42FA-BFF3-86973E01CB0D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{156F7BA6-CB29-46C8-A363-97BB5001C171}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{912D4436-A3FE-40E9-9457-6FDFBAE9D9DE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EEBCE0FF-BF7D-401C-A408-2FB2BFBD2537}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{33773654-5918-4D8C-9D69-7DF57D31B2F4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D8BB4DD4-152E-460F-884F-9E4B02CF173E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C4DF2943-4EBF-46BD-81B6-8451188053B1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6A6EC633-CECA-4053-B2BD-51B6EBB19A87}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4CA2F868-3293-494D-AB46-A52F4DC50FFA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{67819559-7F5B-4D2A-B698-81D409955A5E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{24485BB1-B145-49B6-857D-E38784727FAD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5F87F651-CEA4-47FB-B304-01B41C783982}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E51A4516-C3BF-4EC5-A052-8E40A6A8E21B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9B73D323-3228-47AC-812A-B56866C45837}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13051,7 +13051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A55082-21BD-40E8-8A4C-E6DFA1FB4440}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B608DCCB-7AF5-4398-9214-5145687471B7}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14322,18 +14322,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{98A5ED50-DEEF-4E30-86D4-90FC1AE31145}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{842BBAB2-F7A6-461E-9B3C-07F0AEBC7723}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{889F86AF-D4DE-4D8A-8E80-A1B14F5D5675}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CBA1F71C-3231-4C82-BBD6-91B387622817}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A9D97BBF-DFA5-48B7-A746-502F6891335E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FDCFEED5-DCFD-4245-99B3-F1BEA80B3351}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{70BB8F0A-95BD-4C8A-8785-8D609A3C34FE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AC6619E1-A530-43B1-B78E-EB1042B7620A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2A0ABAFA-E103-4FB9-936E-34552888CD17}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{66ECA00E-5C09-4F3E-929C-9A63C4FB34C9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{92E32827-8309-493E-B295-42C39A4D5E29}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{490A92D6-CEF8-4C5E-B9DA-69169E9756CE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{91322429-92EF-4646-AC29-1F5232831257}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D2BE9FD3-917A-4E07-9311-4D610C01AD61}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EBC3B93D-4B1E-47F9-838A-EFD9D20509DB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C9F91D08-C1C6-4DC7-AE91-CC58C45CB4F5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5C9A72DF-5C83-44C4-BB43-E20AE4E87F20}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B52EC87D-D028-4E08-A44C-8F3848539998}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{469A21C4-91DA-41B8-B60C-20B39FDBFDE4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F9A8BD02-8B8B-4099-A4EC-DC2059435079}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0BBEC75B-FD2C-427B-A7DA-F3F0C6C9CD57}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5F3EE8B5-AF33-442D-B3B8-1B327BB9687C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{502441DC-7227-4731-B54F-36FD667B8860}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A333051A-FB1B-4CA7-8838-FC7878A242AB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14346,7 +14346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCD1331-489A-4F5A-908C-608B9DB4BA23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085ADBAE-A326-4F7C-B727-D42156E2F597}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15617,18 +15617,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FB699EA7-14E5-4418-8002-A5C26AEA4A3E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{419ED1C1-C0A3-4660-8680-4BC7AE93372E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C11A63C1-FC4F-402D-AA27-DBC6A3F0E069}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E42700BD-586A-40C8-A546-1382EBFB33C1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{37AC1D81-F96C-45C3-AE6A-968CB5CF7C2D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ECA367D0-F447-4131-A618-49709E8EE80E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D24D38DE-4E0F-4909-B047-CDAAD68535D3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C86EF9CE-CC27-4A21-8296-EEEE0D3B76A7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D7AC71E1-1C40-420C-A18B-C02E78900B04}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2BE5AFCE-D264-4B85-9EEB-43C298289EFC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{92F53AE6-2DFD-4FC4-8550-6BB11780E130}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{62BE753B-C7FD-4166-B081-ED18B3E9AFF3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A7C0B89B-932A-42BA-9093-D18CE3BD6908}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6AE4A07C-3FC2-47AE-932A-1BE513A0CC0F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4648E831-2F7B-4368-A59E-DD207514B6CE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1B1FA1F9-6122-4AB8-9DA0-D19A432FD467}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9709EAA9-4910-4D71-891D-CD5A2469BB38}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A193DCE9-E99B-40EB-95B8-CDEBF3C5B08F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C49F52FE-3217-4045-A282-28CB5CC5F542}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{321004D7-DB8B-4993-A207-D460B5135AA6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{76FADFFB-C61B-4676-A910-374257104F11}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CD93A2E0-D81C-4B4F-80E4-692EE2DF3301}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA7385DD-AC50-417B-9D18-D98BF36DFB64}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6E2DC474-A829-4F1B-984A-E28EE03DF5DC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15641,7 +15641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C74394-B8E7-4E25-8D6D-AF88237D1603}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78806F0C-F5D2-49D0-A751-90846D3CA534}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16908,18 +16908,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A04F9C11-1279-4680-8A03-65BBC326AB82}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5E33A049-DFA2-4495-A286-A76771E5E85D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D918D42B-556C-4E58-B702-F6AC57FA9BD9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D942D2BD-36D9-4D1C-8817-8CB4A14719D7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5D30647B-F655-4B3C-AB5C-0783E631BB13}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4F8EE0E1-15DC-4B34-BA21-1BB2B715FF73}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AE296573-088B-42FE-BC1D-51AFDAB25983}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{22B1C992-8FD5-419A-AA23-ACA7D9BA523D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F9F3C75A-5EF2-45E7-B540-A53A995D4D3B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{84F8F758-5967-4530-9AE3-4E3D782F6316}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4FDCA5F5-CE50-4381-B759-D487CE3A18FD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6C71F0EC-A736-42A8-A6D7-48E02985FBA0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4B28AA10-A26F-465B-8028-ED0AD22E6FB7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E7ACA968-8918-40F5-BE27-98D3DE8C905C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DECB45DC-F6FC-4949-8683-529D8C02F93F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5F4E4BD9-42D7-4E49-A095-23979C7BE39B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1B82DA56-26DF-4B73-852D-ED229E672B05}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3A4316A1-7724-471F-95EB-B1E6A9D53794}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B7A2352D-F658-47C9-886F-A452A3F02DDE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B37A00E7-1CD8-4F41-AA3D-D7168B850077}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0EA1F2E1-E591-4A05-9F08-5C1934D1AF8B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8F7D3103-9C17-4631-9B94-A9EB13D3D74E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E9EA830F-C737-40D1-B389-FA5F20236997}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D750DAEB-4F55-43F1-9221-1EEC7D5DC50F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
